--- a/Microcode Cheat Sheet.xlsx
+++ b/Microcode Cheat Sheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bertw\Documents\GitHub\8-bit-Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAB49C7-B638-4A46-BE81-CC6DE5FD5080}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405C443B-807D-43D6-BB12-C0873418591C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15945" yWindow="1785" windowWidth="21600" windowHeight="11265" xr2:uid="{096FE876-D004-418E-87BD-E4E231232AC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{096FE876-D004-418E-87BD-E4E231232AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Microcodes" sheetId="1" r:id="rId1"/>
-    <sheet name="Program - Fibonacci" sheetId="3" r:id="rId2"/>
+    <sheet name="Program - Up and Down" sheetId="4" r:id="rId2"/>
+    <sheet name="Program - Fibonacci" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Instruction</t>
   </si>
@@ -79,9 +80,6 @@
     <t>OUT</t>
   </si>
   <si>
-    <t>HALT</t>
-  </si>
-  <si>
     <t>Output: Display whatever value is on the bus</t>
   </si>
   <si>
@@ -110,13 +108,35 @@
   </si>
   <si>
     <t>Jump Zero: Jump to program counter step if Zero Flag is set</t>
+  </si>
+  <si>
+    <t>Description: Counts up to 255 by 3s and then counts down to 0 by 6s</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Assmebler</t>
+  </si>
+  <si>
+    <t>Memory Value</t>
+  </si>
+  <si>
+    <t>HLT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0000"/>
+    <numFmt numFmtId="168" formatCode="00000000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +148,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,13 +188,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,337 +528,646 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610C6AD0-1FF4-4D5A-A084-2817C748181F}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="5" width="2.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="B16" s="6">
+        <v>1110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1111</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B2C6D2-48AF-498E-B9C7-2AD88A7EDA47}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="E4" s="6" t="str">
+        <f>DEC2BIN(A4,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F4" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B4,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>1110</v>
+      </c>
+      <c r="G4" s="9" t="str">
+        <f>DEC2BIN(C4,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="H4" s="10" t="str">
+        <f>TEXT(F4&amp;G4,"0000 0000")</f>
+        <v>1110 0000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" ref="E5:E19" si="0">DEC2BIN(A5,4)</f>
+        <v>0001</v>
+      </c>
+      <c r="F5" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B5,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="str">
+        <f t="shared" ref="G5:G19" si="1">DEC2BIN(C5,4)</f>
+        <v>1110</v>
+      </c>
+      <c r="H5" s="10" t="str">
+        <f t="shared" ref="H5:H19" si="2">TEXT(F5&amp;G5,"0000 0000")</f>
+        <v>0010 1110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0010</v>
+      </c>
+      <c r="F6" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B6,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>111</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0100</v>
+      </c>
+      <c r="H6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0111 0100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0011</v>
+      </c>
+      <c r="F7" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B7,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>110</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0110 0000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0100</v>
+      </c>
+      <c r="F8" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B8,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>11</v>
+      </c>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="H8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0011 1111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0101</v>
+      </c>
+      <c r="F9" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B9,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>1110</v>
+      </c>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>1110 0000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0110</v>
+      </c>
+      <c r="F10" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B10,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>1000</v>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="H10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>1000 1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0111</v>
+      </c>
+      <c r="F11" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B11,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>110</v>
+      </c>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0100</v>
+      </c>
+      <c r="H11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0110 0100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F12" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B12,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>1111</v>
+      </c>
+      <c r="G12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>1111 0000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B13,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B14,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B15,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B16,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1101</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B17,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B18,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0011</v>
+      </c>
+      <c r="H18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B19,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0110</v>
+      </c>
+      <c r="H19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F4:F11 F13:F19" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F28264-4DAE-460A-98FE-FA0AD9942A00}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Microcode Cheat Sheet.xlsx
+++ b/Microcode Cheat Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bertw\Documents\GitHub\8-bit-Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405C443B-807D-43D6-BB12-C0873418591C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5018A37-45AF-48D5-BBCE-5BF3EB6FAF30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{096FE876-D004-418E-87BD-E4E231232AC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{096FE876-D004-418E-87BD-E4E231232AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Microcodes" sheetId="1" r:id="rId1"/>
     <sheet name="Program - Up and Down" sheetId="4" r:id="rId2"/>
-    <sheet name="Program - Fibonacci" sheetId="3" r:id="rId3"/>
+    <sheet name="Program - Fibonacci" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Instruction</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>HLT</t>
+  </si>
+  <si>
+    <t>Description: Fibonacci sequence up to 233</t>
+  </si>
+  <si>
+    <t>STB</t>
+  </si>
+  <si>
+    <t>Store B: Store value in B register into address included in instruction address</t>
   </si>
 </sst>
 </file>
@@ -531,7 +540,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,8 +661,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
       <c r="B11" s="6">
         <v>1001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -708,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B2C6D2-48AF-498E-B9C7-2AD88A7EDA47}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,21 +1171,455 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F4:F11 F13:F19" formula="1"/>
+    <ignoredError sqref="F4:F12 F13:F19" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F28264-4DAE-460A-98FE-FA0AD9942A00}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FB0D57-B78D-4BA0-90CD-D5D8DAC4522E}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>DEC2BIN(A4,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F4" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B5,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="str">
+        <f>DEC2BIN(C5,4)</f>
+        <v>1110</v>
+      </c>
+      <c r="H4" s="10" t="str">
+        <f>TEXT(F4&amp;G4,"0000 0000")</f>
+        <v>0001 1110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" ref="E5:E19" si="0">DEC2BIN(A5,4)</f>
+        <v>0001</v>
+      </c>
+      <c r="F5" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B6,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="str">
+        <f t="shared" ref="G5:G11" si="1">DEC2BIN(C6,4)</f>
+        <v>1111</v>
+      </c>
+      <c r="H5" s="10" t="str">
+        <f>TEXT(F5&amp;G5,"0000 0000")</f>
+        <v>0010 1111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0010</v>
+      </c>
+      <c r="F6" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B7,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>100</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="H6" s="10" t="str">
+        <f t="shared" ref="H5:H11" si="2">TEXT(F6&amp;G6,"0000 0000")</f>
+        <v>0100 1111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0011</v>
+      </c>
+      <c r="F7" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B8,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>1001</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
+      <c r="H7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>1001 1110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0100</v>
+      </c>
+      <c r="F8" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B9,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>111</v>
+      </c>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0001</v>
+      </c>
+      <c r="H8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0111 0001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0101</v>
+      </c>
+      <c r="F9" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B10,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>1111</v>
+      </c>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>1111 0000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0110</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B11,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0111</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B11,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B12,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G12" s="9" t="str">
+        <f t="shared" ref="G5:G19" si="3">DEC2BIN(C12,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="H12" s="10" t="str">
+        <f t="shared" ref="H5:H19" si="4">TEXT(F12&amp;G12,"0000 0000")</f>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B13,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="H13" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B14,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="H14" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B15,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="H15" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B16,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="H16" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1101</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B17,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="H17" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B18,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="H18" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B19,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G19" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0001</v>
+      </c>
+      <c r="H19" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>0000 0001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F4 F11:F19" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Microcode Cheat Sheet.xlsx
+++ b/Microcode Cheat Sheet.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bertw\Documents\GitHub\8-bit-Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5018A37-45AF-48D5-BBCE-5BF3EB6FAF30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A11F6C-FD3D-430B-8312-25AAE1290CDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{096FE876-D004-418E-87BD-E4E231232AC4}"/>
+    <workbookView xWindow="15945" yWindow="1785" windowWidth="21600" windowHeight="11265" activeTab="2" xr2:uid="{096FE876-D004-418E-87BD-E4E231232AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Microcodes" sheetId="1" r:id="rId1"/>
     <sheet name="Program - Up and Down" sheetId="4" r:id="rId2"/>
     <sheet name="Program - Fibonacci" sheetId="5" r:id="rId3"/>
+    <sheet name="Program - Modulo 3" sheetId="7" r:id="rId4"/>
+    <sheet name="Program - FizzBuzz" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
     <t>Instruction</t>
   </si>
@@ -135,6 +137,33 @@
   </si>
   <si>
     <t>Store B: Store value in B register into address included in instruction address</t>
+  </si>
+  <si>
+    <t>LDB</t>
+  </si>
+  <si>
+    <t>JM5</t>
+  </si>
+  <si>
+    <t>JM15</t>
+  </si>
+  <si>
+    <t>Buzz</t>
+  </si>
+  <si>
+    <t>FizzBuzz</t>
+  </si>
+  <si>
+    <t>Description: Prints each number 1 to 100, printing 255 if the number is divisible by 3</t>
+  </si>
+  <si>
+    <t>NotMod3=0</t>
+  </si>
+  <si>
+    <t>Mod3=0</t>
+  </si>
+  <si>
+    <t>Load B: Take value stored at instruction pointer address and load into the B register</t>
   </si>
 </sst>
 </file>
@@ -540,7 +569,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,8 +701,14 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
       <c r="B12" s="6">
         <v>1010</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1181,7 +1216,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,23 +1267,26 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>DEC2BIN(A4,4)</f>
         <v>0000</v>
       </c>
       <c r="F4" s="7">
-        <f>_xlfn.IFNA(VLOOKUP(B5,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
-        <v>1</v>
+        <f>_xlfn.IFNA(VLOOKUP(B4,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>101</v>
       </c>
       <c r="G4" s="9" t="str">
-        <f>DEC2BIN(C5,4)</f>
-        <v>1110</v>
+        <f>DEC2BIN(C4,4)</f>
+        <v>0001</v>
       </c>
       <c r="H4" s="10" t="str">
         <f>TEXT(F4&amp;G4,"0000 0000")</f>
-        <v>0001 1110</v>
+        <v>0101 0001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1256,9 +1294,9 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>14</v>
       </c>
       <c r="E5" s="6" t="str">
@@ -1266,16 +1304,16 @@
         <v>0001</v>
       </c>
       <c r="F5" s="7">
-        <f>_xlfn.IFNA(VLOOKUP(B6,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
-        <v>10</v>
+        <f>_xlfn.IFNA(VLOOKUP(B5,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>100</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f t="shared" ref="G5:G11" si="1">DEC2BIN(C6,4)</f>
-        <v>1111</v>
+        <f t="shared" ref="G5:G19" si="1">DEC2BIN(C5,4)</f>
+        <v>1110</v>
       </c>
       <c r="H5" s="10" t="str">
         <f>TEXT(F5&amp;G5,"0000 0000")</f>
-        <v>0010 1111</v>
+        <v>0100 1110</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1283,26 +1321,26 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0010</v>
       </c>
       <c r="F6" s="7">
-        <f>_xlfn.IFNA(VLOOKUP(B7,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
-        <v>100</v>
+        <f>_xlfn.IFNA(VLOOKUP(B6,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>101</v>
       </c>
       <c r="G6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>1111</v>
+        <v>0000</v>
       </c>
       <c r="H6" s="10" t="str">
         <f t="shared" ref="H5:H11" si="2">TEXT(F6&amp;G6,"0000 0000")</f>
-        <v>0100 1111</v>
+        <v>0101 0000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1320,16 +1358,16 @@
         <v>0011</v>
       </c>
       <c r="F7" s="7">
-        <f>_xlfn.IFNA(VLOOKUP(B8,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
-        <v>1001</v>
+        <f>_xlfn.IFNA(VLOOKUP(B7,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>100</v>
       </c>
       <c r="G7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H7" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>1001 1110</v>
+        <v>0100 1111</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1337,26 +1375,23 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0100</v>
       </c>
       <c r="F8" s="7">
-        <f>_xlfn.IFNA(VLOOKUP(B9,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
-        <v>111</v>
+        <f>_xlfn.IFNA(VLOOKUP(B8,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>1110</v>
       </c>
       <c r="G8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0001</v>
+        <v>0000</v>
       </c>
       <c r="H8" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>0111 0001</v>
+        <v>1110 0000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1364,26 +1399,26 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0101</v>
+      </c>
+      <c r="F9" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B9,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0101</v>
-      </c>
-      <c r="F9" s="7">
-        <f>_xlfn.IFNA(VLOOKUP(B10,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
-        <v>1111</v>
-      </c>
       <c r="G9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>1110</v>
       </c>
       <c r="H9" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>1111 0000</v>
+        <v>0001 1110</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1391,187 +1426,216 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>15</v>
+      </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0110</v>
       </c>
-      <c r="F10" s="7" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B11,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
-        <v>0000</v>
+      <c r="F10" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B10,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>10</v>
       </c>
       <c r="G10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="H10" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>0000 0000</v>
+        <v>0010 1111</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0111</v>
       </c>
-      <c r="F11" s="7" t="str">
+      <c r="F11" s="7">
         <f>_xlfn.IFNA(VLOOKUP(B11,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
-        <v>0000</v>
+        <v>100</v>
       </c>
       <c r="G11" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0000</v>
+        <v>1110</v>
       </c>
       <c r="H11" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>0000 0000</v>
+        <v>0100 1110</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="F12" s="7" t="str">
+      <c r="F12" s="7">
         <f>_xlfn.IFNA(VLOOKUP(B12,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
-        <v>0000</v>
+        <v>1110</v>
       </c>
       <c r="G12" s="9" t="str">
-        <f t="shared" ref="G5:G19" si="3">DEC2BIN(C12,4)</f>
+        <f t="shared" si="1"/>
         <v>0000</v>
       </c>
       <c r="H12" s="10" t="str">
-        <f t="shared" ref="H5:H19" si="4">TEXT(F12&amp;G12,"0000 0000")</f>
-        <v>0000 0000</v>
+        <f t="shared" ref="H5:H19" si="3">TEXT(F12&amp;G12,"0000 0000")</f>
+        <v>1110 0000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>15</v>
+      </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1001</v>
       </c>
-      <c r="F13" s="7" t="str">
+      <c r="F13" s="7">
         <f>_xlfn.IFNA(VLOOKUP(B13,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
-        <v>0000</v>
+        <v>1</v>
       </c>
       <c r="G13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="H13" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
-      </c>
-      <c r="H13" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0000 0000</v>
+        <v>0001 1111</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>14</v>
+      </c>
       <c r="E14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="F14" s="7" t="str">
+      <c r="F14" s="7">
         <f>_xlfn.IFNA(VLOOKUP(B14,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
-        <v>0000</v>
+        <v>10</v>
       </c>
       <c r="G14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
+      <c r="H14" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
-      </c>
-      <c r="H14" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0000 0000</v>
+        <v>0010 1110</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>13</v>
+      </c>
       <c r="E15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="F15" s="7" t="str">
+      <c r="F15" s="7">
         <f>_xlfn.IFNA(VLOOKUP(B15,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
-        <v>0000</v>
+        <v>111</v>
       </c>
       <c r="G15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1101</v>
+      </c>
+      <c r="H15" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
-      </c>
-      <c r="H15" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0000 0000</v>
+        <v>0111 1101</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
       <c r="E16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="F16" s="7" t="str">
+      <c r="F16" s="7">
         <f>_xlfn.IFNA(VLOOKUP(B16,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
-        <v>0000</v>
+        <v>110</v>
       </c>
       <c r="G16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0011</v>
+      </c>
+      <c r="H16" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
-      </c>
-      <c r="H16" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0000 0000</v>
+        <v>0110 0011</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1101</v>
       </c>
-      <c r="F17" s="7" t="str">
+      <c r="F17" s="7">
         <f>_xlfn.IFNA(VLOOKUP(B17,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
-        <v>0000</v>
+        <v>1111</v>
       </c>
       <c r="G17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H17" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
-      </c>
-      <c r="H17" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0000 0000</v>
+        <v>1111 0000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
+      <c r="C18" s="5"/>
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1110</v>
@@ -1581,11 +1645,11 @@
         <v>0000</v>
       </c>
       <c r="G18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H18" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>0000</v>
-      </c>
-      <c r="H18" s="10" t="str">
-        <f t="shared" si="4"/>
         <v>0000 0000</v>
       </c>
     </row>
@@ -1593,9 +1657,7 @@
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
+      <c r="C19" s="5"/>
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1111</v>
@@ -1605,12 +1667,12 @@
         <v>0000</v>
       </c>
       <c r="G19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H19" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>0001</v>
-      </c>
-      <c r="H19" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>0000 0001</v>
+        <v>0000 0000</v>
       </c>
     </row>
   </sheetData>
@@ -1618,8 +1680,928 @@
     <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="F4 F11:F19" formula="1"/>
-  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD1BCCE-770E-49E5-ADF3-ABB0973553C0}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>DEC2BIN(A4,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F4" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B4,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>1110</v>
+      </c>
+      <c r="G4" s="9" t="str">
+        <f>DEC2BIN(C4,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="H4" s="10" t="str">
+        <f>TEXT(F4&amp;G4,"0000 0000")</f>
+        <v>1110 0000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" ref="E5:E19" si="0">DEC2BIN(A5,4)</f>
+        <v>0001</v>
+      </c>
+      <c r="F5" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B5,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="str">
+        <f t="shared" ref="G5:G19" si="1">DEC2BIN(C5,4)</f>
+        <v>1111</v>
+      </c>
+      <c r="H5" s="10" t="str">
+        <f t="shared" ref="H5:H19" si="2">TEXT(F5&amp;G5,"0000 0000")</f>
+        <v>0010 1111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0010</v>
+      </c>
+      <c r="F6" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B6,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>100</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1101</v>
+      </c>
+      <c r="H6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0100 1101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0011</v>
+      </c>
+      <c r="F7" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B7,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
+      <c r="H7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0011 1110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0100</v>
+      </c>
+      <c r="F8" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B8,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>1010</v>
+      </c>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
+      <c r="H8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>1010 1110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0101</v>
+      </c>
+      <c r="F9" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B9,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>1000</v>
+      </c>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="H9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>1000 1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0110</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B10,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0111</v>
+      </c>
+      <c r="F11" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B11,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>101</v>
+      </c>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="H11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0101 1111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F12" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B12,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>1111</v>
+      </c>
+      <c r="G12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>1111 0000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="F13" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B13,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>111</v>
+      </c>
+      <c r="G13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0011</v>
+      </c>
+      <c r="H13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0111 0011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B14,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="F15" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B15,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>101</v>
+      </c>
+      <c r="G15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="H15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0101 1111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="F16" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B16,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>1111</v>
+      </c>
+      <c r="G16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>1111 0000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1101</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B17,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000</v>
+      </c>
+      <c r="H17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B18,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0011</v>
+      </c>
+      <c r="H18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B19,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0001</v>
+      </c>
+      <c r="H19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0515397-E11C-4AA5-9446-9F441AA349BA}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>DEC2BIN(A4,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="F4" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B5,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>1110</v>
+      </c>
+      <c r="G4" s="9" t="str">
+        <f>DEC2BIN(C5,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="H4" s="10" t="str">
+        <f>TEXT(F4&amp;G4,"0000 0000")</f>
+        <v>1110 0000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="E5" s="6" t="str">
+        <f t="shared" ref="E5:E19" si="0">DEC2BIN(A5,4)</f>
+        <v>0001</v>
+      </c>
+      <c r="F5" s="7">
+        <f>_xlfn.IFNA(VLOOKUP(B6,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="9" t="str">
+        <f t="shared" ref="G5:G11" si="1">DEC2BIN(C6,4)</f>
+        <v>1111</v>
+      </c>
+      <c r="H5" s="10" t="str">
+        <f>TEXT(F5&amp;G5,"0000 0000")</f>
+        <v>0010 1111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0010</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B7,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0101</v>
+      </c>
+      <c r="H6" s="10" t="str">
+        <f t="shared" ref="H6:H19" si="2">TEXT(F6&amp;G6,"0000 0000")</f>
+        <v>0000 0101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0011</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B8,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0001</v>
+      </c>
+      <c r="H7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0100</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B9,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0111</v>
+      </c>
+      <c r="H8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0101</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B10,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0001</v>
+      </c>
+      <c r="H9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0110</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B11,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0001</v>
+      </c>
+      <c r="H10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0111</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B11,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0001</v>
+      </c>
+      <c r="H11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B12,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G12" s="9" t="str">
+        <f t="shared" ref="G12:G26" si="3">DEC2BIN(C12,4)</f>
+        <v>0001</v>
+      </c>
+      <c r="H12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B13,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="H13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B14,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="H14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B15,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="H15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B16,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="H16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1101</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B17,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="H17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B18,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0000</v>
+      </c>
+      <c r="H18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1111</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B19,Microcodes!$A$2:$B$17,2,FALSE),"0000")</f>
+        <v>0000</v>
+      </c>
+      <c r="G19" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0001</v>
+      </c>
+      <c r="H19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>0000 0001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>